--- a/Output_Backtest/Hierarchical_Risk_Parity_cumulative_returns.xlsx
+++ b/Output_Backtest/Hierarchical_Risk_Parity_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9833389675050036</v>
+        <v>0.9833386814171252</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.966311916749225</v>
+        <v>0.9663117144534874</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9623588851465436</v>
+        <v>0.9623557637925652</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9676681033043317</v>
+        <v>0.9676634790975939</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9884135845052053</v>
+        <v>0.9884082683884767</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.006932402852069</v>
+        <v>1.006934951232642</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.0085742456868</v>
+        <v>1.008577133404921</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.027766201317297</v>
+        <v>1.02776670972679</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.025657194605953</v>
+        <v>1.025648896329799</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.020810146241381</v>
+        <v>1.020801083012805</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.02088004973191</v>
+        <v>1.020871359927403</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.006654557262258</v>
+        <v>1.006645405197105</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9793289411855015</v>
+        <v>0.9793186959795201</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.9835467129428307</v>
+        <v>0.9835371434341266</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>0.986108063152354</v>
+        <v>0.9860954322451319</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>0.9953622047433438</v>
+        <v>0.9953492443288469</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>0.9949104408654595</v>
+        <v>0.9948966649110756</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.002483027578709</v>
+        <v>1.002469284252633</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.01023989121947</v>
+        <v>1.010225875874564</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.010987831719474</v>
+        <v>1.010973155486853</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.017872456861837</v>
+        <v>1.01785753476349</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.026270855125264</v>
+        <v>1.026256114478484</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.022452484899225</v>
+        <v>1.022437653092564</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.025379696600238</v>
+        <v>1.025365325762814</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.026564308952229</v>
+        <v>1.026550092232638</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.031570749267497</v>
+        <v>1.031556198832899</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.029497655531767</v>
+        <v>1.029483377749284</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.016049466595653</v>
+        <v>1.016035833810303</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.01866164798498</v>
+        <v>1.018648105008854</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.011508852267698</v>
+        <v>1.01149588067225</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.018492406862285</v>
+        <v>1.01837571812246</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.015899269933654</v>
+        <v>1.015775776585281</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.020503901618765</v>
+        <v>1.020328142498873</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.025319028228441</v>
+        <v>1.025152987045892</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.020876795619004</v>
+        <v>1.02069225946784</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.004557964149311</v>
+        <v>1.004279828644542</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.006882762487108</v>
+        <v>1.006617801667511</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.007698623910056</v>
+        <v>1.00789507828668</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.033068116661398</v>
+        <v>1.033073254313286</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.036588586854088</v>
+        <v>1.036435802364058</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.053138112565894</v>
+        <v>1.053154184966353</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.056705449822449</v>
+        <v>1.05673099045276</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.062185123936079</v>
+        <v>1.062282269682543</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.082239567181726</v>
+        <v>1.082396048455599</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.082690935855246</v>
+        <v>1.082916386893615</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.102251794656444</v>
+        <v>1.104216447903868</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.100352312638391</v>
+        <v>1.102035057296109</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.105327720288833</v>
+        <v>1.108227949920282</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.107075095914047</v>
+        <v>1.109259577995963</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.117024408759251</v>
+        <v>1.117936758480595</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.129242227860316</v>
+        <v>1.131319760992594</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.136099097338138</v>
+        <v>1.13818018741251</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.114644568228462</v>
+        <v>1.113835348536421</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.146392890370316</v>
+        <v>1.145826072775967</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.162980181813762</v>
+        <v>1.161481111631343</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.174723286001646</v>
+        <v>1.173412766311656</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.19424041309052</v>
+        <v>1.193342876820752</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.191454556638625</v>
+        <v>1.190726742592132</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.18845828292439</v>
+        <v>1.18781364564871</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.180424502386628</v>
+        <v>1.179690653578815</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.201735962812315</v>
+        <v>1.20077246435409</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.208189345132842</v>
+        <v>1.207152690637016</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.202167751474341</v>
+        <v>1.201169449769576</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.187099815356859</v>
+        <v>1.186102326889508</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.17079804728752</v>
+        <v>1.169775028120668</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.180479972392265</v>
+        <v>1.179412238602887</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.185719116134235</v>
+        <v>1.184639150552841</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.195436289084663</v>
+        <v>1.194262421236416</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.205522775584382</v>
+        <v>1.204398543990692</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.203893322712632</v>
+        <v>1.202763863946813</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.189326090355257</v>
+        <v>1.188167528387085</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.191437198408145</v>
+        <v>1.190222143076752</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.188592348786807</v>
+        <v>1.18752158726368</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.193106308407448</v>
+        <v>1.191953470472637</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.164657845228604</v>
+        <v>1.163601543870547</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.154132964840179</v>
+        <v>1.153205597715227</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.127001906617262</v>
+        <v>1.126051573981647</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.084600032019493</v>
+        <v>1.083666422955101</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.088455725531556</v>
+        <v>1.087449192939838</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.064921782986308</v>
+        <v>1.065409649330975</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.091652135861908</v>
+        <v>1.090921994050549</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.062484133195207</v>
+        <v>1.061935636830631</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.011062301687985</v>
+        <v>1.0148321900581</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.001603702444437</v>
+        <v>1.007210455432523</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.0448928564357</v>
+        <v>1.047081423246748</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.038553542144834</v>
+        <v>1.039683986344215</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.077347650612327</v>
+        <v>1.076482006525751</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.0467739952665</v>
+        <v>1.046884589869396</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.074947287999147</v>
+        <v>1.074372422480579</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.080669670448868</v>
+        <v>1.079551292135659</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.064112326794963</v>
+        <v>1.064249993663933</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.068278993633891</v>
+        <v>1.067573739461882</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.079058323678186</v>
+        <v>1.078208014419445</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.074057884755628</v>
+        <v>1.073185148647432</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.055924044672751</v>
+        <v>1.055104631564131</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.040050823150772</v>
+        <v>1.039521536881696</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.074270914866056</v>
+        <v>1.073110051302449</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.103236008630105</v>
+        <v>1.102701748531061</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.10090734362667</v>
+        <v>1.100490174604498</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.097664928679379</v>
+        <v>1.096676460740662</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.117709369535661</v>
+        <v>1.115190651368489</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.098832781472993</v>
+        <v>1.095292110420964</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.11327458925134</v>
+        <v>1.110011544094746</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.12179884322364</v>
+        <v>1.118721220293536</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.1474640053455</v>
+        <v>1.144019525415765</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.161220482555793</v>
+        <v>1.157595204660927</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.178720063670166</v>
+        <v>1.17475916715183</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.16207593333071</v>
+        <v>1.156720506472176</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.151934697042537</v>
+        <v>1.147648517951261</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Hierarchical_Risk_Parity_cumulative_returns.xlsx
+++ b/Output_Backtest/Hierarchical_Risk_Parity_cumulative_returns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>0.9833386814171252</v>
+        <v>0.9833393877382292</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>0.9663117144534874</v>
+        <v>0.9663134388602779</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>0.9623557637925652</v>
+        <v>0.9623525196178199</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>0.9676634790975939</v>
+        <v>0.9676593072081857</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>0.9884082683884767</v>
+        <v>0.9884037196480983</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>1.006934951232642</v>
+        <v>1.006943771299003</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>1.008577133404921</v>
+        <v>1.008586189625411</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>1.02776670972679</v>
+        <v>1.027773461168137</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>42582</v>
       </c>
       <c r="B46">
-        <v>1.025648896329799</v>
+        <v>1.025643979406771</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>1.020801083012805</v>
+        <v>1.020794249454881</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>1.020871359927403</v>
+        <v>1.020865275550549</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>1.006645405197105</v>
+        <v>1.006638133707108</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>0.9793186959795201</v>
+        <v>0.979316695825717</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>0.9835371434341266</v>
+        <v>0.9835359079232812</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>0.9860954322451319</v>
+        <v>0.9860952468466855</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>0.9953492443288469</v>
+        <v>0.9953485183563707</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>0.9948966649110756</v>
+        <v>0.9948967559805949</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>1.002469284252633</v>
+        <v>1.002469062929592</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>1.010225875874564</v>
+        <v>1.010225910824634</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>1.010973155486853</v>
+        <v>1.010973434227571</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>1.01785753476349</v>
+        <v>1.017858123715346</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>1.026256114478484</v>
+        <v>1.026256164612512</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>43008</v>
       </c>
       <c r="B60">
-        <v>1.022437653092564</v>
+        <v>1.022437917529855</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43039</v>
       </c>
       <c r="B61">
-        <v>1.025365325762814</v>
+        <v>1.025365299648599</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43069</v>
       </c>
       <c r="B62">
-        <v>1.026550092232638</v>
+        <v>1.026550068678808</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>43100</v>
       </c>
       <c r="B63">
-        <v>1.031556198832899</v>
+        <v>1.031556157932981</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>43131</v>
       </c>
       <c r="B64">
-        <v>1.029483377749284</v>
+        <v>1.029483103126936</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>1.016035833810303</v>
+        <v>1.016035617561026</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>1.018648105008854</v>
+        <v>1.0186476117773</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>1.01149588067225</v>
+        <v>1.011494717918162</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>1.01837571812246</v>
+        <v>1.018374324039578</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>1.015775776585281</v>
+        <v>1.015774438369602</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>43312</v>
       </c>
       <c r="B70">
-        <v>1.020328142498873</v>
+        <v>1.020327108702985</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>43343</v>
       </c>
       <c r="B71">
-        <v>1.025152987045892</v>
+        <v>1.025151988917959</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>1.02069225946784</v>
+        <v>1.020691101906042</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>1.004279828644542</v>
+        <v>1.004278949527705</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>1.006617801667511</v>
+        <v>1.006616918349766</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>1.00789507828668</v>
+        <v>1.007894228983053</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>43496</v>
       </c>
       <c r="B76">
-        <v>1.033073254313286</v>
+        <v>1.033072446975754</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>1.036435802364058</v>
+        <v>1.036435060748412</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>1.053154184966353</v>
+        <v>1.053153451049378</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>43585</v>
       </c>
       <c r="B79">
-        <v>1.05673099045276</v>
+        <v>1.056730630270061</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>1.062282269682543</v>
+        <v>1.062005545773653</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>43646</v>
       </c>
       <c r="B81">
-        <v>1.082396048455599</v>
+        <v>1.081927779095334</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>43677</v>
       </c>
       <c r="B82">
-        <v>1.082916386893615</v>
+        <v>1.082375992829444</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>1.104216447903868</v>
+        <v>1.101371878726955</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>1.102035057296109</v>
+        <v>1.099400053970726</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>43769</v>
       </c>
       <c r="B85">
-        <v>1.108227949920282</v>
+        <v>1.104269772280018</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>43799</v>
       </c>
       <c r="B86">
-        <v>1.109259577995963</v>
+        <v>1.106045657194935</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>43830</v>
       </c>
       <c r="B87">
-        <v>1.117936758480595</v>
+        <v>1.115859754628506</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>1.131319760992594</v>
+        <v>1.12813470709993</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>1.13818018741251</v>
+        <v>1.13448927016228</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>1.113835348536421</v>
+        <v>1.112966529043283</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>1.145826072775967</v>
+        <v>1.144760136473871</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>1.161481111631343</v>
+        <v>1.161355526863646</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>1.173412766311656</v>
+        <v>1.171393975073866</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>44043</v>
       </c>
       <c r="B94">
-        <v>1.193342876820752</v>
+        <v>1.188945229847589</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>1.190726742592132</v>
+        <v>1.186384372447592</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>1.18781364564871</v>
+        <v>1.183896505956107</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>1.179690653578815</v>
+        <v>1.175255876167825</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>1.20077246435409</v>
+        <v>1.195059496575056</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>44196</v>
       </c>
       <c r="B99">
-        <v>1.207152690637016</v>
+        <v>1.201018526730838</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>1.201169449769576</v>
+        <v>1.195225701756992</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>1.186102326889508</v>
+        <v>1.180135797867989</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>1.169775028120668</v>
+        <v>1.163644129535458</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>1.179412238602887</v>
+        <v>1.173035275283908</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>1.184639150552841</v>
+        <v>1.178190246860548</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>1.194262421236416</v>
+        <v>1.18730618378551</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>1.204398543990692</v>
+        <v>1.197669539569569</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>1.202763863946813</v>
+        <v>1.196005373576396</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>1.188167528387085</v>
+        <v>1.181280240862109</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>1.190222143076752</v>
+        <v>1.182962135897775</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>1.18752158726368</v>
+        <v>1.181013691670203</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>1.191953470472637</v>
+        <v>1.185035067145091</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>1.163601543870547</v>
+        <v>1.157271009633014</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>1.153205597715227</v>
+        <v>1.147579924919124</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>1.126051573981647</v>
+        <v>1.120358690354152</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>1.083666422955101</v>
+        <v>1.078471471197743</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>1.087449192939838</v>
+        <v>1.082137883553357</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>1.065409649330975</v>
+        <v>1.059009068508193</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>1.090921994050549</v>
+        <v>1.084396470002351</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>1.061935636830631</v>
+        <v>1.055567357614617</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>1.0148321900581</v>
+        <v>1.005687733739379</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>1.007210455432523</v>
+        <v>0.9966207464840509</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>1.047081423246748</v>
+        <v>1.039455665770188</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>1.039683986344215</v>
+        <v>1.033396735571824</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>1.076482006525751</v>
+        <v>1.072066352181527</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>1.046884589869396</v>
+        <v>1.041724887213564</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>1.074372422480579</v>
+        <v>1.069922312778093</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>1.079551292135659</v>
+        <v>1.076450485453962</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>1.064249993663933</v>
+        <v>1.061448010298691</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>1.067573739461882</v>
+        <v>1.064550276921968</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>1.078208014419445</v>
+        <v>1.075020697998115</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>1.073185148647432</v>
+        <v>1.070052439101997</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>1.055104631564131</v>
+        <v>1.05193814072493</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>1.039521536881696</v>
+        <v>1.035875817825414</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>1.073110051302449</v>
+        <v>1.069395185492846</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>1.102701748531061</v>
+        <v>1.098373724222837</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>1.100490174604498</v>
+        <v>1.096130282239697</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>1.096676460740662</v>
+        <v>1.092345601206397</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>1.115190651368489</v>
+        <v>1.111802213730519</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>1.095292110420964</v>
+        <v>1.092439838465707</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>1.110011544094746</v>
+        <v>1.106843235017444</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>1.118721220293536</v>
+        <v>1.115556515793542</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>1.144019525415765</v>
+        <v>1.14118153521904</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>1.157595204660927</v>
+        <v>1.154764458524804</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>1.17475916715183</v>
+        <v>1.172128956412594</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>1.156720506472176</v>
+        <v>1.154771710719669</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>1.147648517951261</v>
+        <v>1.148547283484211</v>
       </c>
     </row>
   </sheetData>
